--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Gfra2</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.837667</v>
+        <v>0.9341033333333334</v>
       </c>
       <c r="N2">
-        <v>32.513001</v>
+        <v>2.80231</v>
       </c>
       <c r="O2">
-        <v>0.5477430134675739</v>
+        <v>0.04508188809474321</v>
       </c>
       <c r="P2">
-        <v>0.5477430134675739</v>
+        <v>0.04508188809474322</v>
       </c>
       <c r="Q2">
-        <v>7.563792039639001</v>
+        <v>0.65192659609</v>
       </c>
       <c r="R2">
-        <v>68.074128356751</v>
+        <v>5.867339364810001</v>
       </c>
       <c r="S2">
-        <v>0.5477430134675739</v>
+        <v>0.04508188809474321</v>
       </c>
       <c r="T2">
-        <v>0.5477430134675739</v>
+        <v>0.04508188809474322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -611,28 +614,90 @@
         <v>1</v>
       </c>
       <c r="M3">
+        <v>10.837667</v>
+      </c>
+      <c r="N3">
+        <v>32.513001</v>
+      </c>
+      <c r="O3">
+        <v>0.5230497242297513</v>
+      </c>
+      <c r="P3">
+        <v>0.5230497242297513</v>
+      </c>
+      <c r="Q3">
+        <v>7.563792039639001</v>
+      </c>
+      <c r="R3">
+        <v>68.074128356751</v>
+      </c>
+      <c r="S3">
+        <v>0.5230497242297513</v>
+      </c>
+      <c r="T3">
+        <v>0.5230497242297513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.697917</v>
+      </c>
+      <c r="H4">
+        <v>2.093751</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>8.948376333333334</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>26.845129</v>
       </c>
-      <c r="O3">
-        <v>0.4522569865324261</v>
-      </c>
-      <c r="P3">
-        <v>0.4522569865324261</v>
-      </c>
-      <c r="Q3">
+      <c r="O4">
+        <v>0.4318683876755055</v>
+      </c>
+      <c r="P4">
+        <v>0.4318683876755055</v>
+      </c>
+      <c r="Q4">
         <v>6.245223965431</v>
       </c>
-      <c r="R3">
+      <c r="R4">
         <v>56.207015688879</v>
       </c>
-      <c r="S3">
-        <v>0.4522569865324261</v>
-      </c>
-      <c r="T3">
-        <v>0.4522569865324261</v>
+      <c r="S4">
+        <v>0.4318683876755055</v>
+      </c>
+      <c r="T4">
+        <v>0.4318683876755055</v>
       </c>
     </row>
   </sheetData>
